--- a/Liste.xlsx
+++ b/Liste.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33c026b07bb50802/Feina/Pre dataappa^0Learning projects/Classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{65C8032D-54D4-1F46-B5BA-F6CDAC424826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEED30FB-C580-3441-A98A-9A58A3B77FA4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{65C8032D-54D4-1F46-B5BA-F6CDAC424826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAAFEC5-0109-5E42-9811-DC78556AD327}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="-20540" windowWidth="28040" windowHeight="15820" xr2:uid="{B5B86117-F7DA-9D45-88D5-7A78429F12FC}"/>
+    <workbookView xWindow="1880" yWindow="-20540" windowWidth="28040" windowHeight="15820" activeTab="1" xr2:uid="{B5B86117-F7DA-9D45-88D5-7A78429F12FC}"/>
   </bookViews>
   <sheets>
     <sheet name="liste" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1332,6 +1345,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1651,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041A12D7-D1F2-5E4A-959D-815F4F1F9005}">
   <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1969,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2359,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2382,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2431,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2673,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -3022,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3809,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4518,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -4544,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4613,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -4639,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -4864,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -4913,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -4985,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5161,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -5593,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -5890,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -5913,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
         <v>3</v>
@@ -5968,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -5994,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
         <v>3</v>
@@ -6086,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -6345,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
         <v>3</v>
@@ -6515,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -6878,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -7048,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -7163,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -7405,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -7428,8 +7445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EBCD07-DD53-1747-8BBC-A1CAD3C527A9}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7455,6 +7472,9 @@
       <c r="A2" t="s">
         <v>248</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/Liste.xlsx
+++ b/Liste.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33c026b07bb50802/Feina/Pre dataappa^0Learning projects/Classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{65C8032D-54D4-1F46-B5BA-F6CDAC424826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAAFEC5-0109-5E42-9811-DC78556AD327}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{65C8032D-54D4-1F46-B5BA-F6CDAC424826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DDB201-5094-4245-B4EB-7C205714741E}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="-20540" windowWidth="28040" windowHeight="15820" activeTab="1" xr2:uid="{B5B86117-F7DA-9D45-88D5-7A78429F12FC}"/>
+    <workbookView xWindow="1860" yWindow="-20540" windowWidth="28040" windowHeight="15820" xr2:uid="{B5B86117-F7DA-9D45-88D5-7A78429F12FC}"/>
   </bookViews>
   <sheets>
     <sheet name="liste" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">liste!$A$1:$K$234</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1668,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041A12D7-D1F2-5E4A-959D-815F4F1F9005}">
   <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1986,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2376,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2448,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -3039,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3826,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4535,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -4561,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4630,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -4656,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -4881,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -4930,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -5002,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5178,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -5610,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -5907,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -5930,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>3</v>
@@ -5985,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -6011,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <v>3</v>
@@ -6103,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -6362,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <v>3</v>
@@ -6532,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -6895,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -7065,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -7180,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -7422,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -7432,7 +7435,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <autoFilter ref="A1:K234" xr:uid="{041A12D7-D1F2-5E4A-959D-815F4F1F9005}"/>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:K1048576" xr:uid="{836F0146-E07F-2A4C-BD11-FE221837FD18}">
       <formula1>$A:$A</formula1>
     </dataValidation>
@@ -7445,8 +7449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EBCD07-DD53-1747-8BBC-A1CAD3C527A9}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7472,9 +7476,6 @@
       <c r="A2" t="s">
         <v>248</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
